--- a/tests/fixtures/min_kb.xlsx
+++ b/tests/fixtures/min_kb.xlsx
@@ -1,55 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="132" yWindow="552" windowWidth="28476" windowHeight="12108" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Knowledge base" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compartments" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Metabolite species types" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DNA species types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Promoter loci" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transcription unit loci" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rna species types" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gene loci" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protein species types" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Complex species types" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concentrations" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reactions" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rate laws" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Properties" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Observables" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="References" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
+    <sheet name="Cell" sheetId="2" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="3" r:id="rId3"/>
+    <sheet name="Metabolite species types" sheetId="4" r:id="rId4"/>
+    <sheet name="DNA species types" sheetId="5" r:id="rId5"/>
+    <sheet name="Promoter loci" sheetId="6" r:id="rId6"/>
+    <sheet name="Transcription unit loci" sheetId="7" r:id="rId7"/>
+    <sheet name="Rna species types" sheetId="8" r:id="rId8"/>
+    <sheet name="Gene loci" sheetId="9" r:id="rId9"/>
+    <sheet name="Protein species types" sheetId="10" r:id="rId10"/>
+    <sheet name="Complex species types" sheetId="11" r:id="rId11"/>
+    <sheet name="Concentrations" sheetId="12" r:id="rId12"/>
+    <sheet name="Reactions" sheetId="13" r:id="rId13"/>
+    <sheet name="Rate laws" sheetId="14" r:id="rId14"/>
+    <sheet name="Properties" sheetId="15" r:id="rId15"/>
+    <sheet name="Observables" sheetId="16" r:id="rId16"/>
+    <sheet name="References" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Knowledge base'!$A$1:$B$9</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Cell!$A$1:$B$4</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Compartments!$A$1:$E$3</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Metabolite species types'!$A$1:$F$35</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'DNA species types'!$A$1:$H$2</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'Promoter loci'!$A$1:$J$1</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'Transcription unit loci'!$A$1:$J$28</definedName>
-    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">'Rna species types'!$A$1:$I$28</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">'Gene loci'!$A$1:$J$37</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">'Protein species types'!$A$1:$I$33</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">'Complex species types'!$A$1:$J$2</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">Concentrations!$A$1:$E$95</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">Reactions!$A$1:$F$1</definedName>
-    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">Properties!$A$1:$F$5</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">Observables!$A$1:$G$13</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">References!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Complex species types'!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Concentrations!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DNA species types'!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Gene loci'!$A$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Knowledge base'!$A$1:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Metabolite species types'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Observables!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Promoter loci'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Properties!$A$1:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">References!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="507">
   <si>
     <t>Id</t>
   </si>
@@ -1567,35 +1567,53 @@
   </si>
   <si>
     <t>Standard id</t>
+  </si>
+  <si>
+    <t>Database References</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCCCCC"/>
+        <fgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1609,21 +1627,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1911,23 +1936,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1943,15 +1964,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1959,25 +1980,25 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1985,36 +2006,35 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s"/>
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B9"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:9">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2042,8 +2062,11 @@
       <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:9">
+      <c r="J1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>327</v>
       </c>
@@ -2062,13 +2085,13 @@
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s"/>
-      <c r="I2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:9">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>328</v>
       </c>
@@ -2087,13 +2110,13 @@
       <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s"/>
-      <c r="I3" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:9">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>329</v>
       </c>
@@ -2112,13 +2135,13 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s"/>
-      <c r="I4" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:9">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>330</v>
       </c>
@@ -2137,13 +2160,13 @@
       <c r="F5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s"/>
-      <c r="I5" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:9">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>331</v>
       </c>
@@ -2162,13 +2185,13 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s"/>
-      <c r="I6" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:9">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>332</v>
       </c>
@@ -2187,13 +2210,13 @@
       <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s"/>
-      <c r="I7" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:9">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>333</v>
       </c>
@@ -2212,13 +2235,13 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s"/>
-      <c r="I8" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:9">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>334</v>
       </c>
@@ -2237,13 +2260,13 @@
       <c r="F9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s"/>
-      <c r="I9" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:9">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>335</v>
       </c>
@@ -2262,13 +2285,13 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s"/>
-      <c r="I10" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:9">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>336</v>
       </c>
@@ -2287,13 +2310,13 @@
       <c r="F11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s"/>
-      <c r="I11" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:9">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>337</v>
       </c>
@@ -2312,13 +2335,13 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s"/>
-      <c r="I12" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="13" spans="1:9">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>338</v>
       </c>
@@ -2337,13 +2360,13 @@
       <c r="F13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s"/>
-      <c r="I13" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="14" spans="1:9">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>339</v>
       </c>
@@ -2362,13 +2385,13 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s"/>
-      <c r="I14" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="15" spans="1:9">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>340</v>
       </c>
@@ -2387,13 +2410,13 @@
       <c r="F15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s"/>
-      <c r="I15" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" spans="1:9">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>341</v>
       </c>
@@ -2412,13 +2435,13 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="s"/>
-      <c r="I16" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="17" spans="1:9">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>342</v>
       </c>
@@ -2437,13 +2460,13 @@
       <c r="F17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s"/>
-      <c r="I17" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="18" spans="1:9">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>343</v>
       </c>
@@ -2462,13 +2485,13 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="2" t="s"/>
-      <c r="I18" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="19" spans="1:9">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>344</v>
       </c>
@@ -2487,13 +2510,13 @@
       <c r="F19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="2" t="s"/>
-      <c r="I19" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="20" spans="1:9">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>345</v>
       </c>
@@ -2512,13 +2535,13 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="2" t="s"/>
-      <c r="I20" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" spans="1:9">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>346</v>
       </c>
@@ -2537,13 +2560,13 @@
       <c r="F21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="2" t="s"/>
-      <c r="I21" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" spans="1:9">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>347</v>
       </c>
@@ -2562,13 +2585,13 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="2" t="s"/>
-      <c r="I22" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" spans="1:9">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>348</v>
       </c>
@@ -2587,13 +2610,13 @@
       <c r="F23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="2" t="s"/>
-      <c r="I23" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="24" spans="1:9">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>349</v>
       </c>
@@ -2612,13 +2635,13 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s"/>
-      <c r="I24" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="25" spans="1:9">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>350</v>
       </c>
@@ -2637,13 +2660,13 @@
       <c r="F25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s"/>
-      <c r="I25" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="26" spans="1:9">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>351</v>
       </c>
@@ -2662,13 +2685,13 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s"/>
-      <c r="I26" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="27" spans="1:9">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>352</v>
       </c>
@@ -2687,13 +2710,13 @@
       <c r="F27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2" t="s"/>
-      <c r="I27" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="28" spans="1:9">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>353</v>
       </c>
@@ -2712,13 +2735,13 @@
       <c r="F28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="s"/>
-      <c r="I28" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="29" spans="1:9">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>354</v>
       </c>
@@ -2737,13 +2760,13 @@
       <c r="F29" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" s="2" t="s"/>
-      <c r="I29" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="30" spans="1:9">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>355</v>
       </c>
@@ -2762,13 +2785,13 @@
       <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="2" t="s"/>
-      <c r="I30" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="31" spans="1:9">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>356</v>
       </c>
@@ -2787,13 +2810,13 @@
       <c r="F31" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="s"/>
-      <c r="I31" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="32" spans="1:9">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>357</v>
       </c>
@@ -2812,13 +2835,13 @@
       <c r="F32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="2" t="s"/>
-      <c r="I32" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="33" spans="1:9">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>358</v>
       </c>
@@ -2837,36 +2860,35 @@
       <c r="F33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2">
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="s"/>
-      <c r="I33" s="2" t="s"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I33"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:10">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2897,49 +2919,51 @@
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:10">
+      <c r="K1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B2" s="2" t="s"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="2" t="s"/>
-      <c r="F2" s="2" t="s"/>
-      <c r="G2" s="2" t="s"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="s"/>
-      <c r="J2" s="2" t="s"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:5">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>367</v>
       </c>
@@ -2955,1253 +2979,1255 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0.0008229999999999999</v>
+      <c r="B2" s="2">
+        <v>8.2299999999999995E-4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D2" s="2" t="s"/>
-      <c r="E2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:5">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0.0026</v>
+      <c r="B3" s="2">
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D3" s="2" t="s"/>
-      <c r="E3" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:5">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>0.000151</v>
+      <c r="B4" s="2">
+        <v>1.5100000000000001E-4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="2" t="s"/>
-      <c r="E4" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:5">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0.00057</v>
+      <c r="B5" s="2">
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="2" t="s"/>
-      <c r="E5" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:5">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0.00051</v>
+      <c r="B6" s="2">
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="2" t="s"/>
-      <c r="E6" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:5">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0.0042</v>
+      <c r="B7" s="2">
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D7" s="2" t="s"/>
-      <c r="E7" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:5">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>0.0035</v>
+      <c r="B8" s="2">
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D8" s="2" t="s"/>
-      <c r="E8" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:5">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0.00036</v>
+      <c r="B9" s="2">
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D9" s="2" t="s"/>
-      <c r="E9" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:5">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>0.0012</v>
+      <c r="B10" s="2">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D10" s="2" t="s"/>
-      <c r="E10" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:5">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0.00037</v>
+      <c r="B11" s="2">
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D11" s="2" t="s"/>
-      <c r="E11" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:5">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0.005</v>
+      <c r="B12" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D12" s="2" t="s"/>
-      <c r="E12" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="13" spans="1:5">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>0.0038</v>
+      <c r="B13" s="2">
+        <v>3.8E-3</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D13" s="2" t="s"/>
-      <c r="E13" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="14" spans="1:5">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>0.096</v>
+      <c r="B14" s="2">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D14" s="2" t="s"/>
-      <c r="E14" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="15" spans="1:5">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>0.0031</v>
+      <c r="B15" s="2">
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D15" s="2" t="s"/>
-      <c r="E15" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" spans="1:5">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>2.4e-05</v>
+      <c r="B16" s="2">
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D16" s="2" t="s"/>
-      <c r="E16" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="17" spans="1:5">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>0.0019</v>
+      <c r="B17" s="2">
+        <v>1.9E-3</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D17" s="2" t="s"/>
-      <c r="E17" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="18" spans="1:5">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>55.5</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D18" s="2" t="s"/>
-      <c r="E18" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="19" spans="1:5">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>2.82e-08</v>
+      <c r="B19" s="2">
+        <v>2.8200000000000001E-8</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D19" s="2" t="s"/>
-      <c r="E19" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="20" spans="1:5">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>6.8e-05</v>
+      <c r="B20" s="2">
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D20" s="2" t="s"/>
-      <c r="E20" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" spans="1:5">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>0.0003</v>
+      <c r="B21" s="2">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D21" s="2" t="s"/>
-      <c r="E21" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" spans="1:5">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>0.0003</v>
+      <c r="B22" s="2">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D22" s="2" t="s"/>
-      <c r="E22" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" spans="1:5">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>0.00041</v>
+      <c r="B23" s="2">
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D23" s="2" t="s"/>
-      <c r="E23" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="24" spans="1:5">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>0.00015</v>
+      <c r="B24" s="2">
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="2" t="s"/>
-      <c r="E24" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="25" spans="1:5">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>1.8e-05</v>
+      <c r="B25" s="2">
+        <v>1.8E-5</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D25" s="2" t="s"/>
-      <c r="E25" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="26" spans="1:5">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>0.005</v>
+      <c r="B26" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D26" s="2" t="s"/>
-      <c r="E26" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="27" spans="1:5">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>0.0005</v>
+      <c r="B27" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D27" s="2" t="s"/>
-      <c r="E27" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="28" spans="1:5">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>0.00039</v>
+      <c r="B28" s="2">
+        <v>3.8999999999999999E-4</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D28" s="2" t="s"/>
-      <c r="E28" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="29" spans="1:5">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>1.690428743154853e-06</v>
+      <c r="B29" s="2">
+        <v>1.690428743154853E-6</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D29" s="2" t="s"/>
-      <c r="E29" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="30" spans="1:5">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>1.670502274669727e-06</v>
+      <c r="B30" s="2">
+        <v>1.6705022746697271E-6</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D30" s="2" t="s"/>
-      <c r="E30" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="31" spans="1:5">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>1.682126047952717e-06</v>
+      <c r="B31" s="2">
+        <v>1.6821260479527169E-6</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D31" s="2" t="s"/>
-      <c r="E31" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="32" spans="1:5">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>1.710355211639979e-06</v>
+      <c r="B32" s="2">
+        <v>1.7103552116399789E-6</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D32" s="2" t="s"/>
-      <c r="E32" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="33" spans="1:5">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>1.670502274669727e-06</v>
+      <c r="B33" s="2">
+        <v>1.6705022746697271E-6</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D33" s="2" t="s"/>
-      <c r="E33" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="34" spans="1:5">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>1.648915267144174e-06</v>
+      <c r="B34" s="2">
+        <v>1.6489152671441739E-6</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D34" s="2" t="s"/>
-      <c r="E34" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="35" spans="1:5">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>1.678804969871863e-06</v>
+      <c r="B35" s="2">
+        <v>1.6788049698718629E-6</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D35" s="2" t="s"/>
-      <c r="E35" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="36" spans="1:5">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>1.682126047952717e-06</v>
+      <c r="B36" s="2">
+        <v>1.6821260479527169E-6</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D36" s="2" t="s"/>
-      <c r="E36" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="37" spans="1:5">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>1.670502274669727e-06</v>
+      <c r="B37" s="2">
+        <v>1.6705022746697271E-6</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D37" s="2" t="s"/>
-      <c r="E37" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="38" spans="1:5">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>1.638952032901611e-06</v>
+      <c r="B38" s="2">
+        <v>1.638952032901611E-6</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D38" s="2" t="s"/>
-      <c r="E38" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="39" spans="1:5">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>1.6688417356293e-06</v>
+      <c r="B39" s="2">
+        <v>1.6688417356293001E-6</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D39" s="2" t="s"/>
-      <c r="E39" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="40" spans="1:5">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>1.662199579467591e-06</v>
+      <c r="B40" s="2">
+        <v>1.662199579467591E-6</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D40" s="2" t="s"/>
-      <c r="E40" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="41" spans="1:5">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>1.662199579467591e-06</v>
+      <c r="B41" s="2">
+        <v>1.662199579467591E-6</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D41" s="2" t="s"/>
-      <c r="E41" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="42" spans="1:5">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>1.65721796234631e-06</v>
+      <c r="B42" s="2">
+        <v>1.65721796234631E-6</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D42" s="2" t="s"/>
-      <c r="E42" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="43" spans="1:5">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>1.731942219165532e-06</v>
+      <c r="B43" s="2">
+        <v>1.7319422191655321E-6</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D43" s="2" t="s"/>
-      <c r="E43" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="44" spans="1:5">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>1.660539040427164e-06</v>
+      <c r="B44" s="2">
+        <v>1.660539040427164E-6</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D44" s="2" t="s"/>
-      <c r="E44" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="45" spans="1:5">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>1.653896884265455e-06</v>
+      <c r="B45" s="2">
+        <v>1.6538968842654549E-6</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D45" s="2" t="s"/>
-      <c r="E45" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="46" spans="1:5">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>1.627328259618621e-06</v>
+      <c r="B46" s="2">
+        <v>1.627328259618621E-6</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D46" s="2" t="s"/>
-      <c r="E46" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="47" spans="1:5">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>1.652236345225028e-06</v>
+      <c r="B47" s="2">
+        <v>1.6522363452250279E-6</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D47" s="2" t="s"/>
-      <c r="E47" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="48" spans="1:5">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>1.65721796234631e-06</v>
+      <c r="B48" s="2">
+        <v>1.65721796234631E-6</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D48" s="2" t="s"/>
-      <c r="E48" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="49" spans="1:5">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>1.69208928219528e-06</v>
+      <c r="B49" s="2">
+        <v>1.69208928219528E-6</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D49" s="2" t="s"/>
-      <c r="E49" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="50" spans="1:5">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>1.614043947295203e-06</v>
+      <c r="B50" s="2">
+        <v>1.614043947295203E-6</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D50" s="2" t="s"/>
-      <c r="E50" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="51" spans="1:5">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>1.695410360276134e-06</v>
+      <c r="B51" s="2">
+        <v>1.695410360276134E-6</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D51" s="2" t="s"/>
-      <c r="E51" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="52" spans="1:5">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>1.645594189063319e-06</v>
+      <c r="B52" s="2">
+        <v>1.6455941890633191E-6</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D52" s="2" t="s"/>
-      <c r="E52" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="53" spans="1:5">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>1.702052516437843e-06</v>
+      <c r="B53" s="2">
+        <v>1.7020525164378431E-6</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D53" s="2" t="s"/>
-      <c r="E53" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="54" spans="1:5">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>1.65721796234631e-06</v>
+      <c r="B54" s="2">
+        <v>1.65721796234631E-6</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D54" s="2" t="s"/>
-      <c r="E54" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="55" spans="1:5">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>1.630649337699475e-06</v>
+      <c r="B55" s="2">
+        <v>1.630649337699475E-6</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D55" s="2" t="s"/>
-      <c r="E55" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="56" spans="1:5">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>1.645594189063319e-06</v>
+      <c r="B56" s="2">
+        <v>1.6455941890633191E-6</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D56" s="2" t="s"/>
-      <c r="E56" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="57" spans="1:5">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>1.660539040427164e-06</v>
+      <c r="B57" s="2">
+        <v>1.660539040427164E-6</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D57" s="2" t="s"/>
-      <c r="E57" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="58" spans="1:5">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>1.667181196588873e-06</v>
+      <c r="B58" s="2">
+        <v>1.6671811965888731E-6</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D58" s="2" t="s"/>
-      <c r="E58" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="59" spans="1:5">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>1.685447126033571e-06</v>
+      <c r="B59" s="2">
+        <v>1.6854471260335709E-6</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D59" s="2" t="s"/>
-      <c r="E59" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="60" spans="1:5">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>1.678804969871863e-06</v>
+      <c r="B60" s="2">
+        <v>1.6788049698718629E-6</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D60" s="2" t="s"/>
-      <c r="E60" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="61" spans="1:5">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B61" s="2" t="n">
-        <v>1.660539040427164e-07</v>
+      <c r="B61" s="2">
+        <v>1.6605390404271641E-7</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D61" s="2" t="s"/>
-      <c r="E61" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="62" spans="1:5">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B62" s="2" t="n">
-        <v>1.893014506086967e-07</v>
+      <c r="B62" s="2">
+        <v>1.893014506086967E-7</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D62" s="2" t="s"/>
-      <c r="E62" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="63" spans="1:5">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B63" s="2" t="n">
-        <v>1.411458184363089e-07</v>
+      <c r="B63" s="2">
+        <v>1.4114581843630891E-7</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D63" s="2" t="s"/>
-      <c r="E63" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="64" spans="1:5">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B64" s="2" t="n">
-        <v>1.92622528689551e-07</v>
+      <c r="B64" s="2">
+        <v>1.9262252868955099E-7</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D64" s="2" t="s"/>
-      <c r="E64" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="65" spans="1:5">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B65" s="2" t="n">
-        <v>1.859803725278424e-07</v>
+      <c r="B65" s="2">
+        <v>1.859803725278424E-7</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D65" s="2" t="s"/>
-      <c r="E65" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="66" spans="1:5">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B66" s="2" t="n">
-        <v>1.31182584193746e-07</v>
+      <c r="B66" s="2">
+        <v>1.3118258419374599E-7</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D66" s="2" t="s"/>
-      <c r="E66" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="67" spans="1:5">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B67" s="2" t="n">
-        <v>1.627328259618621e-07</v>
+      <c r="B67" s="2">
+        <v>1.6273282596186211E-7</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D67" s="2" t="s"/>
-      <c r="E67" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="68" spans="1:5">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B68" s="2" t="n">
-        <v>2.092279190938227e-07</v>
+      <c r="B68" s="2">
+        <v>2.0922791909382271E-7</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D68" s="2" t="s"/>
-      <c r="E68" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="69" spans="1:5">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B69" s="2" t="n">
-        <v>1.710355211639979e-07</v>
+      <c r="B69" s="2">
+        <v>1.7103552116399789E-7</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D69" s="2" t="s"/>
-      <c r="E69" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="70" spans="1:5">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B70" s="2" t="n">
-        <v>1.527695917192991e-07</v>
+      <c r="B70" s="2">
+        <v>1.5276959171929909E-7</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D70" s="2" t="s"/>
-      <c r="E70" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="71" spans="1:5">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B71" s="2" t="n">
-        <v>1.544301307597263e-07</v>
+      <c r="B71" s="2">
+        <v>1.5443013075972631E-7</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D71" s="2" t="s"/>
-      <c r="E71" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="72" spans="1:5">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B72" s="2" t="n">
-        <v>1.594117478810077e-07</v>
+      <c r="B72" s="2">
+        <v>1.5941174788100771E-7</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D72" s="2" t="s"/>
-      <c r="E72" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="73" spans="1:5">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B73" s="2" t="n">
-        <v>1.859803725278424e-07</v>
+      <c r="B73" s="2">
+        <v>1.859803725278424E-7</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D73" s="2" t="s"/>
-      <c r="E73" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="74" spans="1:5">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B74" s="2" t="n">
-        <v>1.710355211639979e-07</v>
+      <c r="B74" s="2">
+        <v>1.7103552116399789E-7</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D74" s="2" t="s"/>
-      <c r="E74" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="75" spans="1:5">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B75" s="2" t="n">
-        <v>1.809987554065609e-07</v>
+      <c r="B75" s="2">
+        <v>1.8099875540656089E-7</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D75" s="2" t="s"/>
-      <c r="E75" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="76" spans="1:5">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B76" s="2" t="n">
-        <v>1.992646848512597e-07</v>
+      <c r="B76" s="2">
+        <v>1.9926468485125969E-7</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D76" s="2" t="s"/>
-      <c r="E76" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="77" spans="1:5">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B77" s="2" t="n">
-        <v>1.428063574767361e-07</v>
+      <c r="B77" s="2">
+        <v>1.428063574767361E-7</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D77" s="2" t="s"/>
-      <c r="E77" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="78" spans="1:5">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B78" s="2" t="n">
-        <v>1.760171382852794e-07</v>
+      <c r="B78" s="2">
+        <v>1.760171382852794E-7</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D78" s="2" t="s"/>
-      <c r="E78" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="79" spans="1:5">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B79" s="2" t="n">
-        <v>1.826592944469881e-07</v>
+      <c r="B79" s="2">
+        <v>1.826592944469881E-7</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D79" s="2" t="s"/>
-      <c r="E79" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="80" spans="1:5">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B80" s="2" t="n">
-        <v>1.909619896491239e-07</v>
+      <c r="B80" s="2">
+        <v>1.9096198964912391E-7</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D80" s="2" t="s"/>
-      <c r="E80" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="81" spans="1:5">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B81" s="2" t="n">
-        <v>1.693749821235707e-07</v>
+      <c r="B81" s="2">
+        <v>1.6937498212357071E-7</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D81" s="2" t="s"/>
-      <c r="E81" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="82" spans="1:5">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B82" s="2" t="n">
-        <v>1.544301307597263e-07</v>
+      <c r="B82" s="2">
+        <v>1.5443013075972631E-7</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D82" s="2" t="s"/>
-      <c r="E82" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="83" spans="1:5">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B83" s="2" t="n">
-        <v>1.726960602044251e-07</v>
+      <c r="B83" s="2">
+        <v>1.7269606020442511E-7</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D83" s="2" t="s"/>
-      <c r="E83" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="84" spans="1:5">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B84" s="2" t="n">
-        <v>1.710355211639979e-07</v>
+      <c r="B84" s="2">
+        <v>1.7103552116399789E-7</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D84" s="2" t="s"/>
-      <c r="E84" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="85" spans="1:5">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B85" s="2" t="n">
-        <v>1.527695917192991e-07</v>
+      <c r="B85" s="2">
+        <v>1.5276959171929909E-7</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D85" s="2" t="s"/>
-      <c r="E85" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="86" spans="1:5">
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B86" s="2" t="n">
-        <v>1.776776773257066e-07</v>
+      <c r="B86" s="2">
+        <v>1.7767767732570659E-7</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D86" s="2" t="s"/>
-      <c r="E86" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="87" spans="1:5">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B87" s="2" t="n">
-        <v>1.693749821235707e-07</v>
+      <c r="B87" s="2">
+        <v>1.6937498212357071E-7</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D87" s="2" t="s"/>
-      <c r="E87" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="88" spans="1:5">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B88" s="2" t="n">
-        <v>1.544301307597263e-07</v>
+      <c r="B88" s="2">
+        <v>1.5443013075972631E-7</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D88" s="2" t="s"/>
-      <c r="E88" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="89" spans="1:5">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B89" s="2" t="n">
-        <v>6.8e-05</v>
+      <c r="B89" s="2">
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D89" s="2" t="s"/>
-      <c r="E89" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="90" spans="1:5">
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B90" s="2" t="n">
-        <v>0.00018</v>
+      <c r="B90" s="2">
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D90" s="2" t="s"/>
-      <c r="E90" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="91" spans="1:5">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B91" s="2" t="n">
-        <v>1.2e-05</v>
+      <c r="B91" s="2">
+        <v>1.2E-5</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D91" s="2" t="s"/>
-      <c r="E91" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="92" spans="1:5">
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B92" s="2" t="n">
-        <v>2.9e-05</v>
+      <c r="B92" s="2">
+        <v>2.9E-5</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D92" s="2" t="s"/>
-      <c r="E92" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="93" spans="1:5">
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B93" s="2" t="n">
-        <v>0.000184</v>
+      <c r="B93" s="2">
+        <v>1.84E-4</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D93" s="2" t="s"/>
-      <c r="E93" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="94" spans="1:5">
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B94" s="2" t="n">
-        <v>0.002</v>
+      <c r="B94" s="2">
+        <v>2E-3</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D94" s="2" t="s"/>
-      <c r="E94" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="95" spans="1:5">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B95" s="2" t="n">
-        <v>0.004</v>
+      <c r="B95" s="2">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D95" s="2" t="s"/>
-      <c r="E95" s="2" t="s"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E95"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:6">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4220,32 +4246,33 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6"/>
+      <c r="G1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>467</v>
       </c>
@@ -4267,32 +4294,33 @@
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7"/>
+      <c r="H1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:6">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4311,87 +4339,89 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="2" t="s"/>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E2" s="2" t="s"/>
-      <c r="F2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:6">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="2" t="s"/>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>1000000</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E3" s="2" t="s"/>
-      <c r="F3" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:6">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B4" s="2" t="s"/>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>0.3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E4" s="2" t="s"/>
-      <c r="F4" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:6">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B5" s="2" t="s"/>
-      <c r="C5" s="2" t="n">
-        <v>1e-15</v>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>1.0000000000000001E-15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E5" s="2" t="s"/>
-      <c r="F5" s="2" t="s"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F5"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4413,8 +4443,11 @@
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>482</v>
       </c>
@@ -4427,11 +4460,11 @@
       <c r="D2" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="2" t="s"/>
-      <c r="F2" s="2" t="s"/>
-      <c r="G2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:7">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>484</v>
       </c>
@@ -4444,11 +4477,11 @@
       <c r="D3" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E3" s="2" t="s"/>
-      <c r="F3" s="2" t="s"/>
-      <c r="G3" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:7">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>486</v>
       </c>
@@ -4461,11 +4494,11 @@
       <c r="D4" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E4" s="2" t="s"/>
-      <c r="F4" s="2" t="s"/>
-      <c r="G4" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:7">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>488</v>
       </c>
@@ -4478,11 +4511,11 @@
       <c r="D5" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E5" s="2" t="s"/>
-      <c r="F5" s="2" t="s"/>
-      <c r="G5" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:7">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>489</v>
       </c>
@@ -4495,11 +4528,11 @@
       <c r="D6" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E6" s="2" t="s"/>
-      <c r="F6" s="2" t="s"/>
-      <c r="G6" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:7">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>491</v>
       </c>
@@ -4512,11 +4545,11 @@
       <c r="D7" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E7" s="2" t="s"/>
-      <c r="F7" s="2" t="s"/>
-      <c r="G7" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:7">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>493</v>
       </c>
@@ -4529,11 +4562,11 @@
       <c r="D8" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E8" s="2" t="s"/>
-      <c r="F8" s="2" t="s"/>
-      <c r="G8" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:7">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>495</v>
       </c>
@@ -4546,11 +4579,11 @@
       <c r="D9" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E9" s="2" t="s"/>
-      <c r="F9" s="2" t="s"/>
-      <c r="G9" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:7">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>497</v>
       </c>
@@ -4563,11 +4596,11 @@
       <c r="D10" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E10" s="2" t="s"/>
-      <c r="F10" s="2" t="s"/>
-      <c r="G10" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:7">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>499</v>
       </c>
@@ -4580,11 +4613,11 @@
       <c r="D11" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E11" s="2" t="s"/>
-      <c r="F11" s="2" t="s"/>
-      <c r="G11" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:7">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>501</v>
       </c>
@@ -4597,11 +4630,11 @@
       <c r="D12" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E12" s="2" t="s"/>
-      <c r="F12" s="2" t="s"/>
-      <c r="G12" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="13" spans="1:7">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>503</v>
       </c>
@@ -4614,34 +4647,30 @@
       <c r="D13" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E13" s="2" t="s"/>
-      <c r="F13" s="2" t="s"/>
-      <c r="G13" s="2" t="s"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4649,31 +4678,26 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:2"/>
   </sheetData>
   <autoFilter ref="A1:B1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4681,48 +4705,47 @@
         <v>12</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:2">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s"/>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B4"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:5">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4738,53 +4761,56 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="s"/>
-      <c r="E2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:5">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="s"/>
-      <c r="E3" s="2" t="s"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E3"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:6">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4803,8 +4829,11 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -4814,11 +4843,11 @@
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="s"/>
-      <c r="F2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:6">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4828,11 +4857,11 @@
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="s"/>
-      <c r="F3" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:6">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -4842,11 +4871,11 @@
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="s"/>
-      <c r="F4" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:6">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -4856,11 +4885,11 @@
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="s"/>
-      <c r="F5" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:6">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -4870,11 +4899,11 @@
       <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="s"/>
-      <c r="F6" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -4884,11 +4913,11 @@
       <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="s"/>
-      <c r="F7" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:6">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -4898,11 +4927,11 @@
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="s"/>
-      <c r="F8" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:6">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -4912,11 +4941,11 @@
       <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="s"/>
-      <c r="F9" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:6">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -4926,11 +4955,11 @@
       <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="s"/>
-      <c r="F10" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:6">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -4940,11 +4969,11 @@
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="s"/>
-      <c r="F11" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:6">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -4954,11 +4983,11 @@
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="s"/>
-      <c r="F12" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="13" spans="1:6">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -4968,11 +4997,11 @@
       <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="s"/>
-      <c r="F13" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="14" spans="1:6">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -4982,11 +5011,11 @@
       <c r="C14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="s"/>
-      <c r="F14" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="15" spans="1:6">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -4996,11 +5025,11 @@
       <c r="C15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="s"/>
-      <c r="F15" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" spans="1:6">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -5010,11 +5039,11 @@
       <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="s"/>
-      <c r="F16" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="17" spans="1:6">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -5024,11 +5053,11 @@
       <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="s"/>
-      <c r="F17" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="18" spans="1:6">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -5038,11 +5067,11 @@
       <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="s"/>
-      <c r="F18" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="19" spans="1:6">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -5052,11 +5081,11 @@
       <c r="C19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="s"/>
-      <c r="F19" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="20" spans="1:6">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -5066,11 +5095,11 @@
       <c r="C20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="s"/>
-      <c r="F20" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" spans="1:6">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>77</v>
       </c>
@@ -5080,11 +5109,11 @@
       <c r="C21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="s"/>
-      <c r="F21" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" spans="1:6">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -5094,11 +5123,11 @@
       <c r="C22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="s"/>
-      <c r="F22" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" spans="1:6">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -5108,11 +5137,11 @@
       <c r="C23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="s"/>
-      <c r="F23" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="24" spans="1:6">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>86</v>
       </c>
@@ -5122,11 +5151,11 @@
       <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="s"/>
-      <c r="F24" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="25" spans="1:6">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -5136,11 +5165,11 @@
       <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="s"/>
-      <c r="F25" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="26" spans="1:6">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
@@ -5150,11 +5179,11 @@
       <c r="C26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="s"/>
-      <c r="F26" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="27" spans="1:6">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>95</v>
       </c>
@@ -5164,11 +5193,11 @@
       <c r="C27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="s"/>
-      <c r="F27" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="28" spans="1:6">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>98</v>
       </c>
@@ -5178,11 +5207,11 @@
       <c r="C28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="s"/>
-      <c r="F28" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="29" spans="1:6">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -5192,11 +5221,11 @@
       <c r="C29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="s"/>
-      <c r="F29" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="30" spans="1:6">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>104</v>
       </c>
@@ -5206,11 +5235,11 @@
       <c r="C30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="s"/>
-      <c r="F30" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="31" spans="1:6">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -5220,11 +5249,11 @@
       <c r="C31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="s"/>
-      <c r="F31" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="32" spans="1:6">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -5234,11 +5263,11 @@
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="s"/>
-      <c r="F32" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="33" spans="1:6">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -5248,11 +5277,11 @@
       <c r="C33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="s"/>
-      <c r="F33" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="34" spans="1:6">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -5262,11 +5291,11 @@
       <c r="C34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="s"/>
-      <c r="F34" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="35" spans="1:6">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>118</v>
       </c>
@@ -5276,34 +5305,30 @@
       <c r="C35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="s"/>
-      <c r="F35" s="2" t="s"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F35"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:8">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5328,49 +5353,48 @@
       <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:8">
+      <c r="I1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="2" t="s"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="s"/>
-      <c r="H2" s="2" t="s"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H2"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:10">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5401,32 +5425,30 @@
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10"/>
+      <c r="K1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:10">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5457,8 +5479,11 @@
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:10">
+      <c r="K1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>134</v>
       </c>
@@ -5471,20 +5496,20 @@
       <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="2" t="s"/>
-      <c r="F2" s="2" t="n">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>175</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="2" t="s"/>
-      <c r="J2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:10">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -5497,20 +5522,20 @@
       <c r="D3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="2" t="s"/>
-      <c r="F3" s="2" t="n">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <v>183</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>872</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="2" t="s"/>
-      <c r="J3" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:10">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -5523,20 +5548,20 @@
       <c r="D4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="2" t="s"/>
-      <c r="F4" s="2" t="n">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <v>695</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>1366</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="2" t="s"/>
-      <c r="J4" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:10">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
@@ -5549,20 +5574,20 @@
       <c r="D5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="2" t="s"/>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>1381</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>1611</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="2" t="s"/>
-      <c r="J5" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:10">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>147</v>
       </c>
@@ -5575,20 +5600,20 @@
       <c r="D6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="2" t="s"/>
-      <c r="F6" s="2" t="n">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>1645</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>1854</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I6" s="2" t="s"/>
-      <c r="J6" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:10">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>150</v>
       </c>
@@ -5601,20 +5626,20 @@
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="2" t="s"/>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>1879</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>2127</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="2" t="s"/>
-      <c r="J7" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:10">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>153</v>
       </c>
@@ -5627,20 +5652,20 @@
       <c r="D8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="2" t="s"/>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>2126</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>2383</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="2" t="s"/>
-      <c r="J8" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:10">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>156</v>
       </c>
@@ -5653,20 +5678,20 @@
       <c r="D9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="2" t="s"/>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>2388</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>2626</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="2" t="s"/>
-      <c r="J9" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:10">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>159</v>
       </c>
@@ -5679,20 +5704,20 @@
       <c r="D10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="2" t="s"/>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>2627</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>2875</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I10" s="2" t="s"/>
-      <c r="J10" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:10">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>162</v>
       </c>
@@ -5705,20 +5730,20 @@
       <c r="D11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="2" t="s"/>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>2879</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>3859</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I11" s="2" t="s"/>
-      <c r="J11" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:10">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>165</v>
       </c>
@@ -5731,20 +5756,20 @@
       <c r="D12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="2" t="s"/>
-      <c r="F12" s="2" t="n">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>3644</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>3859</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="2" t="s"/>
-      <c r="J12" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="13" spans="1:10">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
@@ -5757,20 +5782,20 @@
       <c r="D13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="2" t="s"/>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
         <v>3892</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>4091</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="2" t="s"/>
-      <c r="J13" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="14" spans="1:10">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>171</v>
       </c>
@@ -5783,20 +5808,20 @@
       <c r="D14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="2" t="s"/>
-      <c r="F14" s="2" t="n">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>4120</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>5039</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I14" s="2" t="s"/>
-      <c r="J14" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="15" spans="1:10">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>174</v>
       </c>
@@ -5809,20 +5834,20 @@
       <c r="D15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="2" t="s"/>
-      <c r="F15" s="2" t="n">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>4811</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>5039</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="2" t="s"/>
-      <c r="J15" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" spans="1:10">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>177</v>
       </c>
@@ -5835,20 +5860,20 @@
       <c r="D16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="2" t="s"/>
-      <c r="F16" s="2" t="n">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>5052</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>5254</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="2" t="s"/>
-      <c r="J16" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="17" spans="1:10">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
@@ -5861,20 +5886,20 @@
       <c r="D17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="2" t="s"/>
-      <c r="F17" s="2" t="n">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
         <v>5260</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>5481</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I17" s="2" t="s"/>
-      <c r="J17" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="18" spans="1:10">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>183</v>
       </c>
@@ -5887,20 +5912,20 @@
       <c r="D18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="2" t="s"/>
-      <c r="F18" s="2" t="n">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
         <v>5506</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>5736</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="2" t="s"/>
-      <c r="J18" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="19" spans="1:10">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>186</v>
       </c>
@@ -5913,20 +5938,20 @@
       <c r="D19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="2" t="s"/>
-      <c r="F19" s="2" t="n">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
         <v>5750</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>5920</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I19" s="2" t="s"/>
-      <c r="J19" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="20" spans="1:10">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>189</v>
       </c>
@@ -5939,20 +5964,20 @@
       <c r="D20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="2" t="s"/>
-      <c r="F20" s="2" t="n">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
         <v>5950</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>6156</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="2" t="s"/>
-      <c r="J20" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" spans="1:10">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>192</v>
       </c>
@@ -5965,20 +5990,20 @@
       <c r="D21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="2" t="s"/>
-      <c r="F21" s="2" t="n">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>6182</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>6411</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I21" s="2" t="s"/>
-      <c r="J21" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" spans="1:10">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>195</v>
       </c>
@@ -5991,20 +6016,20 @@
       <c r="D22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="2" t="s"/>
-      <c r="F22" s="2" t="n">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>6424</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>6642</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="2" t="s"/>
-      <c r="J22" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" spans="1:10">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>198</v>
       </c>
@@ -6017,20 +6042,20 @@
       <c r="D23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="2" t="s"/>
-      <c r="F23" s="2" t="n">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <v>6676</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>6877</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="2" t="s"/>
-      <c r="J23" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="24" spans="1:10">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>201</v>
       </c>
@@ -6043,20 +6068,20 @@
       <c r="D24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="2" t="s"/>
-      <c r="F24" s="2" t="n">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <v>6885</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>7094</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I24" s="2" t="s"/>
-      <c r="J24" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="25" spans="1:10">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>204</v>
       </c>
@@ -6069,20 +6094,20 @@
       <c r="D25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="2" t="s"/>
-      <c r="F25" s="2" t="n">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
         <v>7109</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>7317</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I25" s="2" t="s"/>
-      <c r="J25" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="26" spans="1:10">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>207</v>
       </c>
@@ -6095,20 +6120,20 @@
       <c r="D26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="2" t="s"/>
-      <c r="F26" s="2" t="n">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
         <v>7344</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>7571</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I26" s="2" t="s"/>
-      <c r="J26" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="27" spans="1:10">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>210</v>
       </c>
@@ -6121,20 +6146,20 @@
       <c r="D27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="2" t="s"/>
-      <c r="F27" s="2" t="n">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
         <v>7594</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>7773</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I27" s="2" t="s"/>
-      <c r="J27" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="28" spans="1:10">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>213</v>
       </c>
@@ -6147,43 +6172,39 @@
       <c r="D28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="2" t="s"/>
-      <c r="F28" s="2" t="n">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
         <v>7798</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>8382</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I28" s="2" t="s"/>
-      <c r="J28" s="2" t="s"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J28"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:9">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6211,8 +6232,11 @@
       <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:9">
+      <c r="J1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>218</v>
       </c>
@@ -6231,13 +6255,13 @@
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>113.901963132224</v>
       </c>
-      <c r="H2" s="2" t="s"/>
-      <c r="I2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:9">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>221</v>
       </c>
@@ -6256,13 +6280,13 @@
       <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>97.61736367511928</v>
-      </c>
-      <c r="H3" s="2" t="s"/>
-      <c r="I3" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:9">
+      <c r="G3" s="2">
+        <v>97.617363675119279</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>223</v>
       </c>
@@ -6281,13 +6305,13 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>88.87583637970532</v>
-      </c>
-      <c r="H4" s="2" t="s"/>
-      <c r="I4" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:9">
+      <c r="G4" s="2">
+        <v>88.875836379705319</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>225</v>
       </c>
@@ -6306,13 +6330,13 @@
       <c r="F5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>99.1733418135472</v>
-      </c>
-      <c r="H5" s="2" t="s"/>
-      <c r="I5" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:9">
+      <c r="G5" s="2">
+        <v>99.173341813547196</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>228</v>
       </c>
@@ -6331,13 +6355,13 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>87.19684176516735</v>
-      </c>
-      <c r="H6" s="2" t="s"/>
-      <c r="I6" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:9">
+      <c r="G6" s="2">
+        <v>87.196841765167349</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -6356,13 +6380,13 @@
       <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>87.69651456753013</v>
       </c>
-      <c r="H7" s="2" t="s"/>
-      <c r="I7" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:9">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>232</v>
       </c>
@@ -6381,13 +6405,13 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>90.41351083673318</v>
-      </c>
-      <c r="H8" s="2" t="s"/>
-      <c r="I8" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:9">
+      <c r="G8" s="2">
+        <v>90.413510836733181</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>234</v>
       </c>
@@ -6406,13 +6430,13 @@
       <c r="F9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>101.7303872101625</v>
       </c>
-      <c r="H9" s="2" t="s"/>
-      <c r="I9" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:9">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>236</v>
       </c>
@@ -6431,13 +6455,13 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>111.9553258838452</v>
-      </c>
-      <c r="H10" s="2" t="s"/>
-      <c r="I10" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:9">
+      <c r="G10" s="2">
+        <v>111.95532588384521</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>238</v>
       </c>
@@ -6456,13 +6480,13 @@
       <c r="F11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>115.5909672809378</v>
       </c>
-      <c r="H11" s="2" t="s"/>
-      <c r="I11" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:9">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>240</v>
       </c>
@@ -6481,13 +6505,13 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>115.6517687035908</v>
       </c>
-      <c r="H12" s="2" t="s"/>
-      <c r="I12" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="13" spans="1:9">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -6506,13 +6530,13 @@
       <c r="F13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>95.45548104134318</v>
-      </c>
-      <c r="H13" s="2" t="s"/>
-      <c r="I13" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="14" spans="1:9">
+      <c r="G13" s="2">
+        <v>95.455481041343177</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
@@ -6531,13 +6555,13 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>80.79108299526227</v>
-      </c>
-      <c r="H14" s="2" t="s"/>
-      <c r="I14" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="15" spans="1:9">
+      <c r="G14" s="2">
+        <v>80.791082995262272</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -6556,13 +6580,13 @@
       <c r="F15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>87.18968519277185</v>
-      </c>
-      <c r="H15" s="2" t="s"/>
-      <c r="I15" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" spans="1:9">
+      <c r="G15" s="2">
+        <v>87.189685192771847</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>248</v>
       </c>
@@ -6581,13 +6605,13 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>88.55903276730329</v>
-      </c>
-      <c r="H16" s="2" t="s"/>
-      <c r="I16" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="17" spans="1:9">
+      <c r="G16" s="2">
+        <v>88.559032767303293</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>250</v>
       </c>
@@ -6606,13 +6630,13 @@
       <c r="F17" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>95.21206997985291</v>
-      </c>
-      <c r="H17" s="2" t="s"/>
-      <c r="I17" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="18" spans="1:9">
+      <c r="G17" s="2">
+        <v>95.212069979852913</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>252</v>
       </c>
@@ -6631,13 +6655,13 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>86.54008774513881</v>
-      </c>
-      <c r="H18" s="2" t="s"/>
-      <c r="I18" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="19" spans="1:9">
+      <c r="G18" s="2">
+        <v>86.540087745138806</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>254</v>
       </c>
@@ -6656,13 +6680,13 @@
       <c r="F19" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>91.81652714110261</v>
-      </c>
-      <c r="H19" s="2" t="s"/>
-      <c r="I19" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="20" spans="1:9">
+      <c r="G19" s="2">
+        <v>91.816527141102611</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>256</v>
       </c>
@@ -6681,13 +6705,13 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>101.5368700094888</v>
-      </c>
-      <c r="H20" s="2" t="s"/>
-      <c r="I20" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" spans="1:9">
+      <c r="G20" s="2">
+        <v>101.53687000948879</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>258</v>
       </c>
@@ -6706,13 +6730,13 @@
       <c r="F21" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>96.27832887727001</v>
-      </c>
-      <c r="H21" s="2" t="s"/>
-      <c r="I21" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" spans="1:9">
+      <c r="G21" s="2">
+        <v>96.278328877270013</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>260</v>
       </c>
@@ -6731,13 +6755,13 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>99.97501378174306</v>
-      </c>
-      <c r="H22" s="2" t="s"/>
-      <c r="I22" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" spans="1:9">
+      <c r="G22" s="2">
+        <v>99.975013781743058</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>262</v>
       </c>
@@ -6756,13 +6780,13 @@
       <c r="F23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>114.151471179102</v>
       </c>
-      <c r="H23" s="2" t="s"/>
-      <c r="I23" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="24" spans="1:9">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>264</v>
       </c>
@@ -6781,13 +6805,13 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>101.9909901380231</v>
-      </c>
-      <c r="H24" s="2" t="s"/>
-      <c r="I24" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="25" spans="1:9">
+      <c r="G24" s="2">
+        <v>101.99099013802309</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
@@ -6806,13 +6830,13 @@
       <c r="F25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>99.09233467896703</v>
-      </c>
-      <c r="H25" s="2" t="s"/>
-      <c r="I25" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="26" spans="1:9">
+      <c r="G25" s="2">
+        <v>99.092334678967035</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>268</v>
       </c>
@@ -6831,13 +6855,13 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>93.134445499371</v>
-      </c>
-      <c r="H26" s="2" t="s"/>
-      <c r="I26" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="27" spans="1:9">
+      <c r="G26" s="2">
+        <v>93.134445499370997</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>270</v>
       </c>
@@ -6856,13 +6880,13 @@
       <c r="F27" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>109.4842367700764</v>
-      </c>
-      <c r="H27" s="2" t="s"/>
-      <c r="I27" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="28" spans="1:9">
+      <c r="G27" s="2">
+        <v>109.48423677007639</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>272</v>
       </c>
@@ -6881,36 +6905,32 @@
       <c r="F28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>110.8512890323267</v>
       </c>
-      <c r="H28" s="2" t="s"/>
-      <c r="I28" s="2" t="s"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I28"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:10">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6941,8 +6961,11 @@
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="2" spans="1:10">
+      <c r="K1" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -6952,23 +6975,23 @@
       <c r="C2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="2" t="s"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>171</v>
       </c>
-      <c r="I2" s="2" t="s"/>
-      <c r="J2" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" spans="1:10">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>276</v>
       </c>
@@ -6978,23 +7001,23 @@
       <c r="C3" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="2" t="s"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>190</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="2">
         <v>405</v>
       </c>
-      <c r="I3" s="2" t="s"/>
-      <c r="J3" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:10">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>278</v>
       </c>
@@ -7004,23 +7027,23 @@
       <c r="C4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="2" t="s"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>430</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="2">
         <v>666</v>
       </c>
-      <c r="I4" s="2" t="s"/>
-      <c r="J4" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:10">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>280</v>
       </c>
@@ -7030,23 +7053,23 @@
       <c r="C5" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="2" t="s"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>703</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="2">
         <v>867</v>
       </c>
-      <c r="I5" s="2" t="s"/>
-      <c r="J5" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" spans="1:10">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>282</v>
       </c>
@@ -7056,23 +7079,23 @@
       <c r="C6" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D6" s="2" t="s"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>907</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>1065</v>
       </c>
-      <c r="I6" s="2" t="s"/>
-      <c r="J6" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" spans="1:10">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>284</v>
       </c>
@@ -7082,23 +7105,23 @@
       <c r="C7" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="2" t="s"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>1093</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="2">
         <v>1359</v>
       </c>
-      <c r="I7" s="2" t="s"/>
-      <c r="J7" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" spans="1:10">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>146</v>
       </c>
@@ -7108,23 +7131,23 @@
       <c r="C8" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="2" t="s"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>1381</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="2">
         <v>1611</v>
       </c>
-      <c r="I8" s="2" t="s"/>
-      <c r="J8" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:10">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>149</v>
       </c>
@@ -7134,23 +7157,23 @@
       <c r="C9" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="2" t="s"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>1651</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="2">
         <v>1848</v>
       </c>
-      <c r="I9" s="2" t="s"/>
-      <c r="J9" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" spans="1:10">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>152</v>
       </c>
@@ -7160,23 +7183,23 @@
       <c r="C10" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="2" t="s"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>1885</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>2118</v>
       </c>
-      <c r="I10" s="2" t="s"/>
-      <c r="J10" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="11" spans="1:10">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
@@ -7186,23 +7209,23 @@
       <c r="C11" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="2" t="s"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>2134</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>2382</v>
       </c>
-      <c r="I11" s="2" t="s"/>
-      <c r="J11" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" spans="1:10">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>158</v>
       </c>
@@ -7212,23 +7235,23 @@
       <c r="C12" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D12" s="2" t="s"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>2395</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>2619</v>
       </c>
-      <c r="I12" s="2" t="s"/>
-      <c r="J12" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="13" spans="1:10">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>161</v>
       </c>
@@ -7238,23 +7261,23 @@
       <c r="C13" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D13" s="2" t="s"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>2638</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>2868</v>
       </c>
-      <c r="I13" s="2" t="s"/>
-      <c r="J13" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="14" spans="1:10">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>292</v>
       </c>
@@ -7264,23 +7287,23 @@
       <c r="C14" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="2" t="s"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>2890</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>3102</v>
       </c>
-      <c r="I14" s="2" t="s"/>
-      <c r="J14" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="15" spans="1:10">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -7290,23 +7313,23 @@
       <c r="C15" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D15" s="2" t="s"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>3130</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>3378</v>
       </c>
-      <c r="I15" s="2" t="s"/>
-      <c r="J15" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" spans="1:10">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>296</v>
       </c>
@@ -7316,23 +7339,23 @@
       <c r="C16" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="2" t="s"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="2">
         <v>3433</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="2">
         <v>3621</v>
       </c>
-      <c r="I16" s="2" t="s"/>
-      <c r="J16" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="17" spans="1:10">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>167</v>
       </c>
@@ -7342,23 +7365,23 @@
       <c r="C17" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="2" t="s"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>3652</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2">
         <v>3852</v>
       </c>
-      <c r="I17" s="2" t="s"/>
-      <c r="J17" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="18" spans="1:10">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>170</v>
       </c>
@@ -7368,23 +7391,23 @@
       <c r="C18" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D18" s="2" t="s"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>3895</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>4086</v>
       </c>
-      <c r="I18" s="2" t="s"/>
-      <c r="J18" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="19" spans="1:10">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>300</v>
       </c>
@@ -7394,23 +7417,23 @@
       <c r="C19" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D19" s="2" t="s"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>4129</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>4305</v>
       </c>
-      <c r="I19" s="2" t="s"/>
-      <c r="J19" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="20" spans="1:10">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>302</v>
       </c>
@@ -7420,23 +7443,23 @@
       <c r="C20" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="2" t="s"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>4351</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="2">
         <v>4536</v>
       </c>
-      <c r="I20" s="2" t="s"/>
-      <c r="J20" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" spans="1:10">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>304</v>
       </c>
@@ -7446,23 +7469,23 @@
       <c r="C21" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="2" t="s"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>4570</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="2">
         <v>4788</v>
       </c>
-      <c r="I21" s="2" t="s"/>
-      <c r="J21" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" spans="1:10">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>176</v>
       </c>
@@ -7472,23 +7495,23 @@
       <c r="C22" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D22" s="2" t="s"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>4819</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>5034</v>
       </c>
-      <c r="I22" s="2" t="s"/>
-      <c r="J22" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" spans="1:10">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>179</v>
       </c>
@@ -7498,23 +7521,23 @@
       <c r="C23" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="2" t="s"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>5056</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>5247</v>
       </c>
-      <c r="I23" s="2" t="s"/>
-      <c r="J23" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="24" spans="1:10">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>182</v>
       </c>
@@ -7524,23 +7547,23 @@
       <c r="C24" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D24" s="2" t="s"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>5266</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="2">
         <v>5475</v>
       </c>
-      <c r="I24" s="2" t="s"/>
-      <c r="J24" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="25" spans="1:10">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>185</v>
       </c>
@@ -7550,23 +7573,23 @@
       <c r="C25" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D25" s="2" t="s"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>5506</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="2">
         <v>5736</v>
       </c>
-      <c r="I25" s="2" t="s"/>
-      <c r="J25" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="26" spans="1:10">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>188</v>
       </c>
@@ -7576,23 +7599,23 @@
       <c r="C26" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D26" s="2" t="s"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>5758</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="2">
         <v>5919</v>
       </c>
-      <c r="I26" s="2" t="s"/>
-      <c r="J26" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="27" spans="1:10">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>191</v>
       </c>
@@ -7602,23 +7625,23 @@
       <c r="C27" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D27" s="2" t="s"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>5953</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>6150</v>
       </c>
-      <c r="I27" s="2" t="s"/>
-      <c r="J27" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="28" spans="1:10">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -7628,23 +7651,23 @@
       <c r="C28" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="2" t="s"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>6184</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2">
         <v>6405</v>
       </c>
-      <c r="I28" s="2" t="s"/>
-      <c r="J28" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="29" spans="1:10">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>197</v>
       </c>
@@ -7654,23 +7677,23 @@
       <c r="C29" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D29" s="2" t="s"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>6424</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>6642</v>
       </c>
-      <c r="I29" s="2" t="s"/>
-      <c r="J29" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="30" spans="1:10">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>200</v>
       </c>
@@ -7680,23 +7703,23 @@
       <c r="C30" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D30" s="2" t="s"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>6679</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="2">
         <v>6873</v>
       </c>
-      <c r="I30" s="2" t="s"/>
-      <c r="J30" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="31" spans="1:10">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>203</v>
       </c>
@@ -7706,23 +7729,23 @@
       <c r="C31" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D31" s="2" t="s"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>6892</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="2">
         <v>7086</v>
       </c>
-      <c r="I31" s="2" t="s"/>
-      <c r="J31" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="32" spans="1:10">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>206</v>
       </c>
@@ -7732,23 +7755,23 @@
       <c r="C32" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="2" t="s"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>7114</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2">
         <v>7314</v>
       </c>
-      <c r="I32" s="2" t="s"/>
-      <c r="J32" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="33" spans="1:10">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>209</v>
       </c>
@@ -7758,23 +7781,23 @@
       <c r="C33" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="2" t="s"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2">
         <v>7348</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2">
         <v>7566</v>
       </c>
-      <c r="I33" s="2" t="s"/>
-      <c r="J33" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="34" spans="1:10">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>212</v>
       </c>
@@ -7784,23 +7807,23 @@
       <c r="C34" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D34" s="2" t="s"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2">
         <v>7594</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="2">
         <v>7773</v>
       </c>
-      <c r="I34" s="2" t="s"/>
-      <c r="J34" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="35" spans="1:10">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>319</v>
       </c>
@@ -7810,23 +7833,23 @@
       <c r="C35" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D35" s="2" t="s"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2">
         <v>7804</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>7947</v>
       </c>
-      <c r="I35" s="2" t="s"/>
-      <c r="J35" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="36" spans="1:10">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>321</v>
       </c>
@@ -7836,23 +7859,23 @@
       <c r="C36" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D36" s="2" t="s"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2">
         <v>7981</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>8145</v>
       </c>
-      <c r="I36" s="2" t="s"/>
-      <c r="J36" s="2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="37" spans="1:10">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>323</v>
       </c>
@@ -7862,24 +7885,24 @@
       <c r="C37" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D37" s="2" t="s"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="2">
         <v>8185</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2">
         <v>8379</v>
       </c>
-      <c r="I37" s="2" t="s"/>
-      <c r="J37" s="2" t="s"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J37"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/fixtures/min_kb.xlsx
+++ b/tests/fixtures/min_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="552" windowWidth="28476" windowHeight="12108" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="135" yWindow="555" windowWidth="28470" windowHeight="12105" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -1946,7 +1946,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -2022,16 +2022,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -2086,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2111,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2136,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2161,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2186,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2211,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2236,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2261,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2286,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2311,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2336,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2360,9 +2363,7 @@
       <c r="F13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
@@ -2386,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2411,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2436,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2461,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2486,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2511,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2536,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2561,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2586,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2611,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2636,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2661,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2686,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2711,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2736,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2761,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2786,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2811,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2836,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2861,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2883,9 +2884,9 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -2958,9 +2959,9 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -4222,9 +4223,9 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -4267,9 +4268,9 @@
       <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -4315,9 +4316,9 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -4416,9 +4417,9 @@
       <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -4661,14 +4662,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -4695,7 +4696,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -4740,9 +4741,9 @@
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -4805,9 +4806,9 @@
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -5326,7 +5327,7 @@
       <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5392,7 +5393,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5446,7 +5447,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -6199,10 +6200,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -6480,9 +6484,7 @@
       <c r="F11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="2">
-        <v>115.5909672809378</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
@@ -6656,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>86.540087745138806</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6928,7 +6930,7 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">

--- a/tests/fixtures/min_kb.xlsx
+++ b/tests/fixtures/min_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="555" windowWidth="28470" windowHeight="12105" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="135" yWindow="555" windowWidth="28470" windowHeight="12105" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Properties!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Protein species types'!$A$1:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Rate laws'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reactions!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">References!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="508">
   <si>
     <t>Id</t>
   </si>
@@ -1570,6 +1570,9 @@
   </si>
   <si>
     <t>Database References</t>
+  </si>
+  <si>
+    <t>Submodel</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4214,21 +4217,21 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4236,23 +4239,26 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>506</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/tests/fixtures/min_kb.xlsx
+++ b/tests/fixtures/min_kb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="555" windowWidth="28470" windowHeight="12105" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="135" yWindow="555" windowWidth="28470" windowHeight="12105" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Knowledge base" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Rna species types'!$A$1:$I$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Transcription unit loci'!$A$1:$J$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="516">
   <si>
     <t>Id</t>
   </si>
@@ -1573,6 +1573,30 @@
   </si>
   <si>
     <t>Submodel</t>
+  </si>
+  <si>
+    <t>metabolism</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>0.000000007312742167607660744</t>
+  </si>
+  <si>
+    <t>0.001*k_cat+k_m</t>
+  </si>
+  <si>
+    <t>[c]: (2) amp ==&gt; (2) atp</t>
+  </si>
+  <si>
+    <t>(2) amp[e] ==&gt; (2) amp[c]</t>
+  </si>
+  <si>
+    <t>mock_conversion_2amp_2atp</t>
+  </si>
+  <si>
+    <t>mock_transfer_2amp</t>
   </si>
 </sst>
 </file>
@@ -4217,21 +4241,26 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4256,6 +4285,44 @@
       <c r="H1" s="3" t="s">
         <v>506</v>
       </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -4265,17 +4332,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4303,6 +4372,34 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>
